--- a/회원가입 시나리오.xlsx
+++ b/회원가입 시나리오.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56CA773D-3B00-D14D-BCEF-B957646186C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B4A0D9-6B64-0842-A368-40220AFE2570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14720" activeTab="5" xr2:uid="{E3C42C1F-2938-124B-819A-9953553EF524}"/>
   </bookViews>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ONITSUKA TIGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COMME DES GARCONS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>THEORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +457,14 @@
   </si>
   <si>
     <t>CAMPER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUGO BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC MART</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1167,10 +1167,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -2044,15 +2044,15 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2127,7 +2127,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2212,18 +2212,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -2311,7 +2311,7 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2597,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2690,7 +2690,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -2753,18 +2753,18 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2929,7 +2929,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>

--- a/회원가입 시나리오.xlsx
+++ b/회원가입 시나리오.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B4A0D9-6B64-0842-A368-40220AFE2570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE0EE41-DBF5-C447-A13B-AE12A122BA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14720" activeTab="5" xr2:uid="{E3C42C1F-2938-124B-819A-9953553EF524}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14720" firstSheet="8" activeTab="12" xr2:uid="{E3C42C1F-2938-124B-819A-9953553EF524}"/>
   </bookViews>
   <sheets>
     <sheet name="10대 남성" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="102">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,10 +425,6 @@
   </si>
   <si>
     <t>HAZZYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THE NORTH FACE KIDS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1183,14 +1179,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CE60AC-EA5B-5A49-BF0F-D741B97358CD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1805,12 +1801,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1981,13 +1977,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2157,12 +2153,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2212,18 +2208,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2231,7 +2227,7 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2296,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -2311,7 +2307,7 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2319,7 +2315,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA06963E-9C38-DD4D-A98A-4DB98B1C5DFF}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2745,7 +2741,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -2764,7 +2760,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/회원가입 시나리오.xlsx
+++ b/회원가입 시나리오.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE0EE41-DBF5-C447-A13B-AE12A122BA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7F73B-DE0D-C14A-970E-1A99E44BBC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14720" firstSheet="8" activeTab="12" xr2:uid="{E3C42C1F-2938-124B-819A-9953553EF524}"/>
   </bookViews>
